--- a/Analysis/Analysis.xlsx
+++ b/Analysis/Analysis.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Dropbox\Research_Lab\Free_delivery_system\Rewards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Blockchain-Powered-Free-Delivery-System\Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C51CFB2-EBFD-4409-A21D-ACD338D243DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
   <si>
     <t>Naïve</t>
   </si>
@@ -72,11 +71,20 @@
   <si>
     <t>500K</t>
   </si>
+  <si>
+    <t>Processing time</t>
+  </si>
+  <si>
+    <t>Total Orders</t>
+  </si>
+  <si>
+    <t>Processing Time (sec)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -111,9 +119,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -293,6 +307,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -435,6 +450,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -537,6 +553,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -648,6 +665,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -821,6 +839,962 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-IN"/>
+              <a:t>500K Orders</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.5814778960955146E-3"/>
+                  <c:y val="6.3932194722076674E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-C446-4A85-9AE3-510A46E0AA63}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.7777311959915948E-3"/>
+                  <c:y val="5.3695222194646876E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-C446-4A85-9AE3-510A46E0AA63}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.5555555555556572E-3"/>
+                  <c:y val="4.5603674540682206E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-C446-4A85-9AE3-510A46E0AA63}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$49:$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>high</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>low</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$49:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>182535</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>311215</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C446-4A85-9AE3-510A46E0AA63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>naïve (free delivery)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="1.0213658822733118E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-C446-4A85-9AE3-510A46E0AA63}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="6.9879445585061184E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-C446-4A85-9AE3-510A46E0AA63}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$49:$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>high</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>low</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$49:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128757</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C446-4A85-9AE3-510A46E0AA63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HIShip (free delivery)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.7326548041429594E-17"/>
+                  <c:y val="4.4829997969450123E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-C446-4A85-9AE3-510A46E0AA63}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.4610783768194535E-3"/>
+                  <c:y val="5.8869360527641079E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-C446-4A85-9AE3-510A46E0AA63}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="1.9180410471613684E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-C446-4A85-9AE3-510A46E0AA63}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx2">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$49:$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>high</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mid</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>low</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$49:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>133826</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21985</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-C446-4A85-9AE3-510A46E0AA63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1549701471"/>
+        <c:axId val="1549700639"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1549701471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN" cap="all" baseline="0"/>
+                  <a:t>User Categories</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.46151336600833898"/>
+              <c:y val="0.91794252795764431"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1549700639"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1549700639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>No. of orders</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1549701471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.891293355997489E-2"/>
+          <c:y val="0.18935827147681039"/>
+          <c:w val="0.65648490813648297"/>
+          <c:h val="7.8125546806649182E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200" b="1" i="0" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
               <a:t>Performance</a:t>
             </a:r>
             <a:r>
@@ -957,6 +1931,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1097,6 +2072,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1318,6 +2294,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1464,6 +2441,447 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN" b="1" i="0" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Time Analysis</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.44462167719383983"/>
+          <c:y val="2.4904210802755785E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$59:$B$60</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Processing time</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Processing Time (sec)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$61:$A$64</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$61:$B$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>270.241692932999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6668.5470347499904</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25367.453221461899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>156479.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6C7F-4444-9306-1D579BDD011A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="69127535"/>
+        <c:axId val="69127951"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="69127535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN" sz="1200" b="1" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Total Number of Orders</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44424886757687021"/>
+              <c:y val="0.95057472009914623"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="69127951"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="69127951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="160000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN" sz="1200" b="1" i="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Processing Time (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="69127535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -1588,7 +3006,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-68A1-4C11-ADE8-830CCE577472}"/>
                 </c:ext>
@@ -1610,7 +3030,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-68A1-4C11-ADE8-830CCE577472}"/>
                 </c:ext>
@@ -1632,7 +3054,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-68A1-4C11-ADE8-830CCE577472}"/>
                 </c:ext>
@@ -1776,7 +3200,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-68A1-4C11-ADE8-830CCE577472}"/>
                 </c:ext>
@@ -1798,7 +3224,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-68A1-4C11-ADE8-830CCE577472}"/>
                 </c:ext>
@@ -1843,6 +3271,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1942,7 +3371,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-68A1-4C11-ADE8-830CCE577472}"/>
                 </c:ext>
@@ -1964,7 +3395,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-68A1-4C11-ADE8-830CCE577472}"/>
                 </c:ext>
@@ -1986,7 +3419,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-68A1-4C11-ADE8-830CCE577472}"/>
                 </c:ext>
@@ -2483,6 +3918,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2580,7 +4016,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-F02D-4575-8DF3-EC06E0BB6067}"/>
                 </c:ext>
@@ -2602,7 +4040,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-F02D-4575-8DF3-EC06E0BB6067}"/>
                 </c:ext>
@@ -2644,6 +4084,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2766,7 +4207,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-F02D-4575-8DF3-EC06E0BB6067}"/>
                 </c:ext>
@@ -2808,6 +4251,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2907,7 +4351,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-F02D-4575-8DF3-EC06E0BB6067}"/>
                 </c:ext>
@@ -2929,7 +4375,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-F02D-4575-8DF3-EC06E0BB6067}"/>
                 </c:ext>
@@ -2971,6 +4419,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3078,6 +4527,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3191,6 +4641,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3259,6 +4710,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3364,6 +4816,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3461,7 +4914,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-8715-4EA8-BCFE-BEE3CC5BD7FC}"/>
                 </c:ext>
@@ -3483,7 +4938,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-8715-4EA8-BCFE-BEE3CC5BD7FC}"/>
                 </c:ext>
@@ -3505,7 +4962,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-8715-4EA8-BCFE-BEE3CC5BD7FC}"/>
                 </c:ext>
@@ -3669,7 +5128,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-8715-4EA8-BCFE-BEE3CC5BD7FC}"/>
                 </c:ext>
@@ -3691,7 +5152,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-8715-4EA8-BCFE-BEE3CC5BD7FC}"/>
                 </c:ext>
@@ -3733,6 +5196,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3832,7 +5296,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-8715-4EA8-BCFE-BEE3CC5BD7FC}"/>
                 </c:ext>
@@ -3854,7 +5320,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-8715-4EA8-BCFE-BEE3CC5BD7FC}"/>
                 </c:ext>
@@ -3876,7 +5344,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-8715-4EA8-BCFE-BEE3CC5BD7FC}"/>
                 </c:ext>
@@ -4149,6 +5619,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4332,6 +5803,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4429,7 +5901,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-1988-46D7-8396-27614CA7F775}"/>
                 </c:ext>
@@ -4451,7 +5925,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-1988-46D7-8396-27614CA7F775}"/>
                 </c:ext>
@@ -4493,6 +5969,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4615,7 +6092,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-1988-46D7-8396-27614CA7F775}"/>
                 </c:ext>
@@ -4657,6 +6136,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4756,7 +6236,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-1988-46D7-8396-27614CA7F775}"/>
                 </c:ext>
@@ -4778,7 +6260,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-1988-46D7-8396-27614CA7F775}"/>
                 </c:ext>
@@ -4820,6 +6304,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4927,6 +6412,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5043,6 +6529,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5185,6 +6672,416 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IN"/>
+              <a:t>Time Analysis</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$59:$B$60</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Processing time</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Processing Time (sec)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$61:$A$64</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$61:$B$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>270.241692932999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6668.5470347499904</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25367.453221461899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>156479.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2DDB-4F91-A997-0E0DD1C45C27}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="69127535"/>
+        <c:axId val="69127951"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="69127535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="69127951"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="69127951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="160000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IN"/>
+                  <a:t>Processing</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IN" baseline="0"/>
+                  <a:t> Time (sec)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="69127535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6110,7 +8007,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7049,7 +8946,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8009,962 +9906,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN"/>
-              <a:t>500K Orders</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$48</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="2.5814778960955146E-3"/>
-                  <c:y val="6.3932194722076674E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-C446-4A85-9AE3-510A46E0AA63}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-2.7777311959915948E-3"/>
-                  <c:y val="5.3695222194646876E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-C446-4A85-9AE3-510A46E0AA63}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-5.5555555555556572E-3"/>
-                  <c:y val="4.5603674540682206E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-C446-4A85-9AE3-510A46E0AA63}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx2">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$49:$A$51</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>high</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>mid</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>low</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$49:$B$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>182535</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>311215</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C446-4A85-9AE3-510A46E0AA63}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$48</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>naïve (free delivery)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="1.0213658822733118E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-C446-4A85-9AE3-510A46E0AA63}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="6.9879445585061184E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-C446-4A85-9AE3-510A46E0AA63}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx2">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$49:$A$51</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>high</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>mid</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>low</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$49:$C$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>128757</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C446-4A85-9AE3-510A46E0AA63}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$48</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HIShip (free delivery)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="00B050"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-4.7326548041429594E-17"/>
-                  <c:y val="4.4829997969450123E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-C446-4A85-9AE3-510A46E0AA63}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="4.4610783768194535E-3"/>
-                  <c:y val="5.8869360527641079E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-C446-4A85-9AE3-510A46E0AA63}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0"/>
-                  <c:y val="1.9180410471613684E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-C446-4A85-9AE3-510A46E0AA63}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="tx2">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$49:$A$51</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>high</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>mid</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>low</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$49:$D$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>6250</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>133826</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21985</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-C446-4A85-9AE3-510A46E0AA63}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="1549701471"/>
-        <c:axId val="1549700639"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1549701471"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-IN" cap="all" baseline="0"/>
-                  <a:t>User Categories</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.46151336600833898"/>
-              <c:y val="0.91794252795764431"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1549700639"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1549700639"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-IN" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>No. of orders</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1549701471"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="7.891293355997489E-2"/>
-          <c:y val="0.18935827147681039"/>
-          <c:w val="0.65648490813648297"/>
-          <c:h val="7.8125546806649182E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx2">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1200" b="1" i="0" baseline="0">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -9006,6 +9947,86 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10303,507 +11324,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="212">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="38100" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="major">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11272,7 +11793,1023 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="212">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11741,7 +13278,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12210,507 +13747,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="212">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="38100" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="major">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13174,6 +14211,1022 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="212">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="38100" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="8"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="2000" b="0" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -14294,6 +16347,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14494,6 +16577,38 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>17438</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>292</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14759,14 +16874,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -15043,7 +17162,57 @@
         <v>21985</v>
       </c>
     </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>270.241692932999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62">
+        <v>6668.5470347499904</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63">
+        <v>25367.453221461899</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64">
+        <v>156479.13</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A59:B59"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -15051,11 +17220,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129A5E94-7E37-41BD-88D3-6B23404184FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B220" workbookViewId="0">
-      <selection activeCell="F234" sqref="F234"/>
+    <sheetView tabSelected="1" topLeftCell="D256" workbookViewId="0">
+      <selection activeCell="Y279" sqref="Y279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Analysis/Analysis.xlsx
+++ b/Analysis/Analysis.xlsx
@@ -307,7 +307,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -450,7 +449,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -553,7 +551,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -665,7 +662,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -844,6 +840,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -941,7 +938,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-C446-4A85-9AE3-510A46E0AA63}"/>
                 </c:ext>
@@ -963,7 +962,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-C446-4A85-9AE3-510A46E0AA63}"/>
                 </c:ext>
@@ -985,7 +986,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-C446-4A85-9AE3-510A46E0AA63}"/>
                 </c:ext>
@@ -1147,7 +1150,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-C446-4A85-9AE3-510A46E0AA63}"/>
                 </c:ext>
@@ -1169,7 +1174,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-C446-4A85-9AE3-510A46E0AA63}"/>
                 </c:ext>
@@ -1209,6 +1216,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1308,7 +1316,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-C446-4A85-9AE3-510A46E0AA63}"/>
                 </c:ext>
@@ -1330,7 +1340,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-C446-4A85-9AE3-510A46E0AA63}"/>
                 </c:ext>
@@ -1352,7 +1364,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-C446-4A85-9AE3-510A46E0AA63}"/>
                 </c:ext>
@@ -1617,6 +1631,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2478,7 +2493,7 @@
                 </a:solidFill>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:rPr>
-              <a:t>Time Analysis</a:t>
+              <a:t>Processing Time Analysis</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3006,9 +3021,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-68A1-4C11-ADE8-830CCE577472}"/>
                 </c:ext>
@@ -3030,9 +3043,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-68A1-4C11-ADE8-830CCE577472}"/>
                 </c:ext>
@@ -3054,9 +3065,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-68A1-4C11-ADE8-830CCE577472}"/>
                 </c:ext>
@@ -3200,9 +3209,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-68A1-4C11-ADE8-830CCE577472}"/>
                 </c:ext>
@@ -3224,9 +3231,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-68A1-4C11-ADE8-830CCE577472}"/>
                 </c:ext>
@@ -3271,7 +3276,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3371,9 +3375,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-68A1-4C11-ADE8-830CCE577472}"/>
                 </c:ext>
@@ -3395,9 +3397,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-68A1-4C11-ADE8-830CCE577472}"/>
                 </c:ext>
@@ -3419,9 +3419,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-68A1-4C11-ADE8-830CCE577472}"/>
                 </c:ext>
@@ -3918,7 +3916,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4016,9 +4013,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-F02D-4575-8DF3-EC06E0BB6067}"/>
                 </c:ext>
@@ -4040,9 +4035,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-F02D-4575-8DF3-EC06E0BB6067}"/>
                 </c:ext>
@@ -4084,7 +4077,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4207,9 +4199,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-F02D-4575-8DF3-EC06E0BB6067}"/>
                 </c:ext>
@@ -4251,7 +4241,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4351,9 +4340,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-F02D-4575-8DF3-EC06E0BB6067}"/>
                 </c:ext>
@@ -4375,9 +4362,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-F02D-4575-8DF3-EC06E0BB6067}"/>
                 </c:ext>
@@ -4419,7 +4404,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4527,7 +4511,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4641,7 +4624,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4710,7 +4692,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4816,7 +4797,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4914,9 +4894,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-8715-4EA8-BCFE-BEE3CC5BD7FC}"/>
                 </c:ext>
@@ -4938,9 +4916,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-8715-4EA8-BCFE-BEE3CC5BD7FC}"/>
                 </c:ext>
@@ -4962,9 +4938,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-8715-4EA8-BCFE-BEE3CC5BD7FC}"/>
                 </c:ext>
@@ -5128,9 +5102,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-8715-4EA8-BCFE-BEE3CC5BD7FC}"/>
                 </c:ext>
@@ -5152,9 +5124,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-8715-4EA8-BCFE-BEE3CC5BD7FC}"/>
                 </c:ext>
@@ -5196,7 +5166,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5296,9 +5265,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-8715-4EA8-BCFE-BEE3CC5BD7FC}"/>
                 </c:ext>
@@ -5320,9 +5287,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-8715-4EA8-BCFE-BEE3CC5BD7FC}"/>
                 </c:ext>
@@ -5344,9 +5309,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-8715-4EA8-BCFE-BEE3CC5BD7FC}"/>
                 </c:ext>
@@ -5619,7 +5582,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5803,7 +5765,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5901,9 +5862,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-1988-46D7-8396-27614CA7F775}"/>
                 </c:ext>
@@ -5925,9 +5884,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-1988-46D7-8396-27614CA7F775}"/>
                 </c:ext>
@@ -5969,7 +5926,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6092,9 +6048,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-1988-46D7-8396-27614CA7F775}"/>
                 </c:ext>
@@ -6136,7 +6090,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6236,9 +6189,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-1988-46D7-8396-27614CA7F775}"/>
                 </c:ext>
@@ -6260,9 +6211,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-1988-46D7-8396-27614CA7F775}"/>
                 </c:ext>
@@ -6304,7 +6253,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6412,7 +6360,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6529,7 +6476,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6711,7 +6657,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6844,7 +6789,6 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6971,7 +6915,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -16579,16 +16522,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>17438</xdr:colOff>
-      <xdr:row>258</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>407963</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>292</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>303</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17223,8 +17166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D256" workbookViewId="0">
-      <selection activeCell="Y279" sqref="Y279"/>
+    <sheetView tabSelected="1" topLeftCell="D268" workbookViewId="0">
+      <selection activeCell="Z278" sqref="Z278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
